--- a/data/trans_orig/P33B5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Edad-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17004</v>
+        <v>17604</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008602242025358493</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04169755226016029</v>
+        <v>0.04316950181358561</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -762,19 +762,19 @@
         <v>8855</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2214</v>
+        <v>2226</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19842</v>
+        <v>20519</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02442730173437529</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006107533016657038</v>
+        <v>0.006139358048711979</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05473592491644135</v>
+        <v>0.05660201362108298</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -783,19 +783,19 @@
         <v>12363</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4395</v>
+        <v>4325</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27061</v>
+        <v>27239</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01604964710369489</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005705584133983545</v>
+        <v>0.005615044653306828</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03513063071444097</v>
+        <v>0.03536168264410045</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17541</v>
+        <v>14201</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008314011821477367</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04301334429562359</v>
+        <v>0.03482494145381761</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9373</v>
+        <v>10732</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.008257218908942642</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02585483954898183</v>
+        <v>0.02960402929396469</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -854,19 +854,19 @@
         <v>6384</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1326</v>
+        <v>1349</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19402</v>
+        <v>18967</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008287284603191825</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001721777850471734</v>
+        <v>0.00175143242101785</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02518737029584059</v>
+        <v>0.02462299581484835</v>
       </c>
     </row>
     <row r="6">
@@ -886,16 +886,16 @@
         <v>1368</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21094</v>
+        <v>21323</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01493296685245553</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.003353572064919621</v>
+        <v>0.003354482474539045</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05172797618154448</v>
+        <v>0.05228928105061937</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -904,19 +904,19 @@
         <v>12693</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5874</v>
+        <v>5664</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25254</v>
+        <v>25875</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03501273335398706</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01620227144613678</v>
+        <v>0.01562524343523794</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06966468459945976</v>
+        <v>0.07137572992750098</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -925,19 +925,19 @@
         <v>18782</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9369</v>
+        <v>9615</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34733</v>
+        <v>32594</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02438267243114026</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01216319685391422</v>
+        <v>0.0124817192567509</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04509037102134887</v>
+        <v>0.04231317026561247</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>394805</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>377649</v>
+        <v>379572</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>404435</v>
+        <v>404203</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9681507793007087</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9260809813920986</v>
+        <v>0.9307961364808458</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9917654999871407</v>
+        <v>0.9911963794720552</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>193</v>
@@ -975,19 +975,19 @@
         <v>337971</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>322750</v>
+        <v>322689</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>348808</v>
+        <v>349357</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9323027460026949</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8903144766657288</v>
+        <v>0.8901471484534034</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9621977603925738</v>
+        <v>0.9637115239105732</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>360</v>
@@ -996,19 +996,19 @@
         <v>732776</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>711122</v>
+        <v>713725</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>746719</v>
+        <v>748586</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9512803958619731</v>
+        <v>0.951280395861973</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9231697018427559</v>
+        <v>0.9265488822765252</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9693805290896641</v>
+        <v>0.9718043342931442</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>3765</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9951</v>
+        <v>10073</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.007894374392018599</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002458770775326961</v>
+        <v>0.002443212158024086</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02086594409931588</v>
+        <v>0.02112237787761006</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -1121,19 +1121,19 @@
         <v>9848</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4403</v>
+        <v>5310</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18025</v>
+        <v>19591</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01965326790699818</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.008787511314933169</v>
+        <v>0.01059722778387033</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03597271278045238</v>
+        <v>0.03909658711377406</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -1142,19 +1142,19 @@
         <v>13613</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7027</v>
+        <v>7168</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>22861</v>
+        <v>22449</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01391926522037724</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.007185598897368636</v>
+        <v>0.007329858934112189</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02337552426228971</v>
+        <v>0.02295501677587489</v>
       </c>
     </row>
     <row r="10">
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8329</v>
+        <v>8460</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003511974954738125</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01746526045855458</v>
+        <v>0.01773909205334713</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1192,19 +1192,19 @@
         <v>5534</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1966</v>
+        <v>1733</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13844</v>
+        <v>12539</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01104374289490942</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003923589580777985</v>
+        <v>0.003458538756456252</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02762735588209107</v>
+        <v>0.02502364572992357</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1213,19 +1213,19 @@
         <v>7209</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2747</v>
+        <v>2815</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14529</v>
+        <v>15323</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007371018284474621</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002808878427869218</v>
+        <v>0.002878706288486762</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01485660888314836</v>
+        <v>0.01566806200284878</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>23916</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14920</v>
+        <v>14742</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>37391</v>
+        <v>36299</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05015003165606356</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03128648927407091</v>
+        <v>0.0309129562358365</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07840616031529309</v>
+        <v>0.07611522863387293</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -1263,19 +1263,19 @@
         <v>21041</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13114</v>
+        <v>13051</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>33546</v>
+        <v>33101</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04199129993186508</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0261705883289292</v>
+        <v>0.02604629533338323</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06694706804992649</v>
+        <v>0.06605879071966218</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>38</v>
@@ -1284,19 +1284,19 @@
         <v>44957</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>31474</v>
+        <v>32913</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>60201</v>
+        <v>61983</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04596975160900443</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03218239510714878</v>
+        <v>0.03365403841780413</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0615572754469856</v>
+        <v>0.06337944813502322</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>447534</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>433616</v>
+        <v>432977</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>457642</v>
+        <v>457872</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9384436189971797</v>
+        <v>0.9384436189971798</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9092575892537267</v>
+        <v>0.9079174302876099</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9596384006458593</v>
+        <v>0.9601200396364916</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>427</v>
@@ -1334,19 +1334,19 @@
         <v>464660</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>450244</v>
+        <v>450333</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>476617</v>
+        <v>475113</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9273116892662272</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8985407977788756</v>
+        <v>0.8987200425853409</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9511745149554334</v>
+        <v>0.9481719928248968</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>706</v>
@@ -1355,19 +1355,19 @@
         <v>912195</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>894573</v>
+        <v>891973</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>929307</v>
+        <v>925805</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9327399648861436</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9147211857477644</v>
+        <v>0.9120627104785312</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9502382479145715</v>
+        <v>0.9466573783518207</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>17076</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9813</v>
+        <v>10610</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27017</v>
+        <v>27531</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02750542979652025</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01580590465250944</v>
+        <v>0.01709017407177042</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04351725037827153</v>
+        <v>0.04434573583195649</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>40</v>
@@ -1480,19 +1480,19 @@
         <v>29747</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22046</v>
+        <v>21152</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>40480</v>
+        <v>40216</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04781411733023939</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03543637746914309</v>
+        <v>0.0339980792037247</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06506550733629039</v>
+        <v>0.06464154523665792</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>55</v>
@@ -1501,19 +1501,19 @@
         <v>46823</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>36218</v>
+        <v>36181</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>60668</v>
+        <v>62008</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03767041359671573</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02913822994956797</v>
+        <v>0.02910810550239642</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04880902292744153</v>
+        <v>0.04988697256963586</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>4685</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11444</v>
+        <v>10931</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.007546070885522577</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.001834915563897139</v>
+        <v>0.001830251271269339</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01843366095917781</v>
+        <v>0.01760630426624059</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>13</v>
@@ -1551,19 +1551,19 @@
         <v>9868</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>5372</v>
+        <v>5417</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>16045</v>
+        <v>16270</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.01586104801024703</v>
+        <v>0.01586104801024704</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.008635010080980237</v>
+        <v>0.008706645492536061</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02578960869057866</v>
+        <v>0.02615230662983288</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>17</v>
@@ -1572,19 +1572,19 @@
         <v>14553</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>8952</v>
+        <v>8541</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>23400</v>
+        <v>22745</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01170791579211668</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.007201968496449</v>
+        <v>0.006871623525848457</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01882561058770285</v>
+        <v>0.01829918669046779</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>28277</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18847</v>
+        <v>18981</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39544</v>
+        <v>39076</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04554656659826257</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03035815000413051</v>
+        <v>0.0305724668204548</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06369534663742106</v>
+        <v>0.06294095343065809</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>66</v>
@@ -1622,19 +1622,19 @@
         <v>47493</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37730</v>
+        <v>36257</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60483</v>
+        <v>60882</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07633881278358605</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06064525693158463</v>
+        <v>0.0582787510844729</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09721723603578303</v>
+        <v>0.09785908023322573</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>94</v>
@@ -1643,19 +1643,19 @@
         <v>75770</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>61612</v>
+        <v>61734</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>93047</v>
+        <v>92018</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06095882222166296</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04956780531868001</v>
+        <v>0.04966631974355872</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07485824134107522</v>
+        <v>0.07403037455579982</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>570799</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>556423</v>
+        <v>555785</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>583074</v>
+        <v>583249</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9194019327196946</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8962469406744056</v>
+        <v>0.8952185343814655</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9391742480214681</v>
+        <v>0.9394560536408277</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>727</v>
@@ -1693,19 +1693,19 @@
         <v>535031</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>519494</v>
+        <v>519965</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>548454</v>
+        <v>550173</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8599860218759277</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8350128755902071</v>
+        <v>0.8357704868319754</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8815619261131914</v>
+        <v>0.8843251554407675</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1226</v>
@@ -1714,19 +1714,19 @@
         <v>1105830</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1083935</v>
+        <v>1086607</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1125052</v>
+        <v>1126066</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8896628483895047</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8720482128549443</v>
+        <v>0.8741975439295993</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9051275456389535</v>
+        <v>0.9059434692914216</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>29635</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20009</v>
+        <v>20165</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42498</v>
+        <v>44405</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04229899306806567</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02855952569789871</v>
+        <v>0.02878165326111628</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06065809546297538</v>
+        <v>0.06338034244362285</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>74</v>
@@ -1839,19 +1839,19 @@
         <v>50251</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40317</v>
+        <v>39663</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62036</v>
+        <v>63248</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06823041861449494</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0547414426666929</v>
+        <v>0.05385398785579909</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08423153200211603</v>
+        <v>0.08587669128232465</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>99</v>
@@ -1860,19 +1860,19 @@
         <v>79887</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>64394</v>
+        <v>65527</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>98054</v>
+        <v>96164</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05558839790668876</v>
+        <v>0.05558839790668877</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04480790357544758</v>
+        <v>0.04559627431569412</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06822962347906941</v>
+        <v>0.06691466275200106</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>7630</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3579</v>
+        <v>3209</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14567</v>
+        <v>14338</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01089092935103491</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005108661277560301</v>
+        <v>0.004580327265794858</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02079161953211836</v>
+        <v>0.02046508830369799</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>31</v>
@@ -1910,19 +1910,19 @@
         <v>20465</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14419</v>
+        <v>14160</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>29055</v>
+        <v>28516</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02778651910047682</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01957745347193847</v>
+        <v>0.01922641748140125</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0394497601525091</v>
+        <v>0.03871858104128832</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>39</v>
@@ -1931,19 +1931,19 @@
         <v>28095</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>19592</v>
+        <v>19591</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>37726</v>
+        <v>38017</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01954962540943738</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01363265727883684</v>
+        <v>0.01363219225895936</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0262513473327819</v>
+        <v>0.02645395475842876</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>49820</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>37578</v>
+        <v>37159</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>65110</v>
+        <v>64317</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.07110859003038736</v>
+        <v>0.07110859003038734</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05363613668610187</v>
+        <v>0.05303687140115315</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.092932038463126</v>
+        <v>0.09180024352204728</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>115</v>
@@ -1981,19 +1981,19 @@
         <v>67675</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>57176</v>
+        <v>55320</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>82140</v>
+        <v>81249</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09188842767378236</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07763248532100424</v>
+        <v>0.07511247144302305</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.111528658506726</v>
+        <v>0.110317985673118</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>162</v>
@@ -2002,19 +2002,19 @@
         <v>117495</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>99471</v>
+        <v>98503</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>137054</v>
+        <v>137020</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.08175789561636435</v>
+        <v>0.08175789561636436</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06921603082528693</v>
+        <v>0.06854238949518648</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09536789796503663</v>
+        <v>0.09534427242315145</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>613531</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>594082</v>
+        <v>595013</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>629806</v>
+        <v>631147</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.875701487550512</v>
+        <v>0.8757014875505119</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8479411565629948</v>
+        <v>0.8492698626621183</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8989301041798107</v>
+        <v>0.9008448470037718</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>920</v>
@@ -2052,19 +2052,19 @@
         <v>598104</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>579732</v>
+        <v>579725</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>613496</v>
+        <v>614794</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8120946346112458</v>
+        <v>0.8120946346112459</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.787150094998732</v>
+        <v>0.7871399741719587</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.832994268661768</v>
+        <v>0.8347568380834712</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1505</v>
@@ -2073,19 +2073,19 @@
         <v>1211635</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1186894</v>
+        <v>1187740</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1237692</v>
+        <v>1237729</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8431040810675093</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8258886067694839</v>
+        <v>0.8264769698446741</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8612353994064318</v>
+        <v>0.8612616538836038</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>43298</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>32393</v>
+        <v>33036</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>56771</v>
+        <v>56179</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07129792007865665</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05334110507802674</v>
+        <v>0.05439956324880897</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09348418970674907</v>
+        <v>0.09250945502539136</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>123</v>
@@ -2198,19 +2198,19 @@
         <v>78037</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>66092</v>
+        <v>64914</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>91183</v>
+        <v>91835</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.1283226848722426</v>
+        <v>0.1283226848722427</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1086801572714552</v>
+        <v>0.10674372166495</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1499390551767217</v>
+        <v>0.1510121907652376</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>171</v>
@@ -2219,19 +2219,19 @@
         <v>121335</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>104406</v>
+        <v>104757</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>141591</v>
+        <v>138593</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09983037213508879</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08590218189375833</v>
+        <v>0.08619055920859131</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1164962643818803</v>
+        <v>0.1140302340789288</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>14283</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8411</v>
+        <v>7881</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22760</v>
+        <v>22238</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02352004620457122</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0138499730574724</v>
+        <v>0.01297785960822958</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03747943812443164</v>
+        <v>0.03661866244075659</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>68</v>
@@ -2269,19 +2269,19 @@
         <v>43003</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33582</v>
+        <v>34060</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>52711</v>
+        <v>54571</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.07071379851427144</v>
+        <v>0.07071379851427147</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05522181313341433</v>
+        <v>0.05600816458851803</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08667677826316045</v>
+        <v>0.08973505887552656</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>83</v>
@@ -2290,19 +2290,19 @@
         <v>57287</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>46108</v>
+        <v>46601</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>71110</v>
+        <v>70133</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04713353202978786</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03793595791552486</v>
+        <v>0.03834192855665357</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05850690167285318</v>
+        <v>0.05770352080087008</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>62316</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>49506</v>
+        <v>48686</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>76773</v>
+        <v>78453</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1026149538268374</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08152115923262977</v>
+        <v>0.08017159705411508</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1264211092810164</v>
+        <v>0.129187637565517</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>127</v>
@@ -2340,19 +2340,19 @@
         <v>69263</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>58128</v>
+        <v>56845</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>80424</v>
+        <v>80384</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1138940963690833</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09558382134792864</v>
+        <v>0.09347419397344722</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1322466423484161</v>
+        <v>0.1321814967359946</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>197</v>
@@ -2361,19 +2361,19 @@
         <v>131578</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>114524</v>
+        <v>112542</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>150154</v>
+        <v>150029</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1082584947513673</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.094226341062883</v>
+        <v>0.09259555666613585</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1235419369923528</v>
+        <v>0.1234391800700108</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>487381</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>467064</v>
+        <v>468998</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>505094</v>
+        <v>505810</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8025670798899349</v>
+        <v>0.802567079889935</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7691120588454499</v>
+        <v>0.7722967746761813</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8317359333523453</v>
+        <v>0.8329139797409608</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>683</v>
@@ -2411,19 +2411,19 @@
         <v>417830</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>400060</v>
+        <v>399752</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>434555</v>
+        <v>435484</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.6870694202444025</v>
+        <v>0.6870694202444028</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6578488011983255</v>
+        <v>0.6573429412503974</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7145730690895808</v>
+        <v>0.7161003776406499</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1211</v>
@@ -2432,19 +2432,19 @@
         <v>905210</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>877691</v>
+        <v>878696</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>929091</v>
+        <v>931677</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.744777601083756</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7221353944628265</v>
+        <v>0.7229629840796282</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7644257807629403</v>
+        <v>0.7665535627795222</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>31576</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>23521</v>
+        <v>22890</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>41307</v>
+        <v>41690</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07756602837016413</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05777950980022196</v>
+        <v>0.05623087678517918</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1014709724887019</v>
+        <v>0.1024131370516467</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>117</v>
@@ -2557,19 +2557,19 @@
         <v>65195</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>55748</v>
+        <v>54846</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>77152</v>
+        <v>76312</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1486794165803553</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1271336036432516</v>
+        <v>0.125076535064623</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1759459149855147</v>
+        <v>0.1740310465492154</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>162</v>
@@ -2578,19 +2578,19 @@
         <v>96771</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>83398</v>
+        <v>82946</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>111663</v>
+        <v>111364</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1144438466285891</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09862802467555699</v>
+        <v>0.09809408439484901</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1320558212088493</v>
+        <v>0.1317022589720338</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>17173</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11648</v>
+        <v>11133</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26033</v>
+        <v>25042</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.0421851083662826</v>
+        <v>0.04218510836628261</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0286142329543488</v>
+        <v>0.02734723611329179</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0639514214904417</v>
+        <v>0.06151695810546829</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>38</v>
@@ -2628,19 +2628,19 @@
         <v>20264</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>14588</v>
+        <v>13974</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>27459</v>
+        <v>26787</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04621315327457946</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03326776034296643</v>
+        <v>0.03186703007113968</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06262041410125026</v>
+        <v>0.06108758102761092</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>63</v>
@@ -2649,19 +2649,19 @@
         <v>37437</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>29030</v>
+        <v>28774</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>47714</v>
+        <v>48382</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04427396268476742</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03433102149868898</v>
+        <v>0.03402839340450216</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05642814613145888</v>
+        <v>0.05721800806032017</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>31764</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>23661</v>
+        <v>23651</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>42776</v>
+        <v>42354</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07802778746832234</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05812356370049204</v>
+        <v>0.05809856639122852</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1050791331329255</v>
+        <v>0.1040434418760085</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>114</v>
@@ -2699,19 +2699,19 @@
         <v>55060</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>45625</v>
+        <v>45840</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>66031</v>
+        <v>65355</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1255656038926068</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1040496197566925</v>
+        <v>0.1045384478221704</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1505839769833747</v>
+        <v>0.1490436067994161</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>161</v>
@@ -2720,19 +2720,19 @@
         <v>86824</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>73813</v>
+        <v>73728</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>101611</v>
+        <v>99783</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1026798396151767</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08729248047527979</v>
+        <v>0.08719247270230124</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1201678045858</v>
+        <v>0.1180060160300749</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>326568</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>313867</v>
+        <v>311981</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>338921</v>
+        <v>338696</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.8022210757952309</v>
+        <v>0.8022210757952308</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.771020625160893</v>
+        <v>0.766388080903431</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.832565816390028</v>
+        <v>0.8320145103847181</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>557</v>
@@ -2770,19 +2770,19 @@
         <v>297977</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>283117</v>
+        <v>282276</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>312048</v>
+        <v>311138</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.6795418262524583</v>
+        <v>0.6795418262524584</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6456527966538073</v>
+        <v>0.6437354246404815</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7116298100178468</v>
+        <v>0.709556482307874</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1010</v>
@@ -2791,19 +2791,19 @@
         <v>624545</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>602555</v>
+        <v>605141</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>644145</v>
+        <v>644271</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7386023510714668</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7125963832990522</v>
+        <v>0.7156550338887535</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7617811211556175</v>
+        <v>0.7619307081327185</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>43675</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>34436</v>
+        <v>34911</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>54275</v>
+        <v>55168</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1407962008243835</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1110114295279613</v>
+        <v>0.1125447714462849</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1749700242317236</v>
+        <v>0.1778485091388226</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>166</v>
@@ -2916,19 +2916,19 @@
         <v>91215</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>78403</v>
+        <v>79631</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>104974</v>
+        <v>104312</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1965778563751045</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.168967121148746</v>
+        <v>0.1716134700808302</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2262310113643027</v>
+        <v>0.2248037024041361</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>232</v>
@@ -2937,19 +2937,19 @@
         <v>134889</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>118792</v>
+        <v>119377</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>153485</v>
+        <v>151972</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.1742281698692611</v>
+        <v>0.174228169869261</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1534366861485266</v>
+        <v>0.1541917341278715</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1982476166449324</v>
+        <v>0.1962924923718912</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>16208</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>10797</v>
+        <v>10556</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>23875</v>
+        <v>23577</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.05224908413100023</v>
+        <v>0.05224908413100022</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03480634394013454</v>
+        <v>0.03403144956623712</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07696721105821036</v>
+        <v>0.07600657256372302</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>73</v>
@@ -2987,19 +2987,19 @@
         <v>38960</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>30874</v>
+        <v>30765</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>48664</v>
+        <v>49049</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.08396304231993437</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06653755018404631</v>
+        <v>0.06630309530259439</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1048770027863572</v>
+        <v>0.1057057592830861</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>98</v>
@@ -3008,19 +3008,19 @@
         <v>55167</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>45253</v>
+        <v>44970</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>67137</v>
+        <v>67945</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07125640935280038</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0584500596263006</v>
+        <v>0.05808496217859618</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08671666755018807</v>
+        <v>0.08776012174435922</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>25869</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>18964</v>
+        <v>18234</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>34661</v>
+        <v>34262</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.08339458739409503</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.06113406259890257</v>
+        <v>0.05878027076076086</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1117388070750448</v>
+        <v>0.1104532891404546</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>133</v>
@@ -3058,19 +3058,19 @@
         <v>62613</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>52573</v>
+        <v>53377</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>73970</v>
+        <v>73406</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.1349383805300487</v>
+        <v>0.1349383805300486</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1133001011146754</v>
+        <v>0.1150339949508157</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.159413585992449</v>
+        <v>0.1581986821079345</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>172</v>
@@ -3079,19 +3079,19 @@
         <v>88482</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>75435</v>
+        <v>76182</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>101408</v>
+        <v>103879</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1142866518113997</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.09743496676017145</v>
+        <v>0.09839911536513009</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1309823349314475</v>
+        <v>0.1341744978441016</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>224447</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>209725</v>
+        <v>210234</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>236096</v>
+        <v>236728</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.7235601276505211</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6761015718638774</v>
+        <v>0.6777400026230014</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7611146994507422</v>
+        <v>0.7631515529120045</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>508</v>
@@ -3129,19 +3129,19 @@
         <v>271225</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>255769</v>
+        <v>255488</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>287242</v>
+        <v>287950</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5845207207749125</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5512118777753526</v>
+        <v>0.5506045839779949</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6190383245383466</v>
+        <v>0.6205638289321964</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>836</v>
@@ -3150,19 +3150,19 @@
         <v>495672</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>474516</v>
+        <v>473607</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>515299</v>
+        <v>515012</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.6402287689665388</v>
+        <v>0.6402287689665387</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6129025883923082</v>
+        <v>0.6117290341199753</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6655795584545623</v>
+        <v>0.6652091839256102</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>172532</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>149499</v>
+        <v>150048</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>197466</v>
+        <v>200839</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.04886643711933661</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.04234281677366329</v>
+        <v>0.04249811516494622</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.05592849082453459</v>
+        <v>0.05688378168231365</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>533</v>
@@ -3275,19 +3275,19 @@
         <v>333149</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>303753</v>
+        <v>305787</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>360946</v>
+        <v>364626</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.08924733764297782</v>
+        <v>0.08924733764297781</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.0813723168192271</v>
+        <v>0.08191744692324454</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.09669394483243431</v>
+        <v>0.09767958991812284</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>736</v>
@@ -3296,19 +3296,19 @@
         <v>505681</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>466862</v>
+        <v>469621</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>547502</v>
+        <v>545463</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.06961888422047754</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.06427447587132869</v>
+        <v>0.06465427983894033</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.07537652540486627</v>
+        <v>0.07509574853258745</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>65044</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>52302</v>
+        <v>51183</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>83490</v>
+        <v>81454</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01842243079680073</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01481346765052791</v>
+        <v>0.01449648490077172</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02364700176898017</v>
+        <v>0.02307024542996495</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>230</v>
@@ -3346,19 +3346,19 @@
         <v>141087</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>121649</v>
+        <v>123811</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>161467</v>
+        <v>161001</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.03779589062280903</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.03258849899837593</v>
+        <v>0.03316773547906216</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.04325546628031161</v>
+        <v>0.04313046702782954</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>309</v>
@@ -3367,19 +3367,19 @@
         <v>206131</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>182640</v>
+        <v>183535</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>230911</v>
+        <v>233457</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.02837878875295716</v>
+        <v>0.02837878875295715</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02514473176998474</v>
+        <v>0.02526783390049835</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03179029949372737</v>
+        <v>0.03214083822402205</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>228051</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>201962</v>
+        <v>201799</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>259658</v>
+        <v>258633</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0645908993858202</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.05720183343190734</v>
+        <v>0.05715552165040683</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07354293755091827</v>
+        <v>0.07325284505302526</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>582</v>
@@ -3417,19 +3417,19 @@
         <v>335839</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>310146</v>
+        <v>308268</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>365520</v>
+        <v>364101</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.08996784031601962</v>
+        <v>0.08996784031601961</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.08308501803374528</v>
+        <v>0.08258187156024628</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.09791919623569414</v>
+        <v>0.09753920518478132</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>835</v>
@@ -3438,19 +3438,19 @@
         <v>563889</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>525678</v>
+        <v>523657</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>607689</v>
+        <v>603087</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.07763255069655364</v>
+        <v>0.07763255069655363</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07237186985640735</v>
+        <v>0.07209372618635267</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.08366259311844754</v>
+        <v>0.08302899819761399</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>3065066</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3019790</v>
+        <v>3024151</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3103794</v>
+        <v>3103369</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.8681202326980425</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.8552966181009051</v>
+        <v>0.8565317585411141</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.8790890977756893</v>
+        <v>0.8789686735404144</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>4015</v>
@@ -3488,19 +3488,19 @@
         <v>2922798</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2876007</v>
+        <v>2878195</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2963417</v>
+        <v>2964067</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.7829889314181935</v>
+        <v>0.7829889314181934</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.7704539241669758</v>
+        <v>0.7710401160576866</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.7938703829478587</v>
+        <v>0.7940445144877792</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>6854</v>
@@ -3509,19 +3509,19 @@
         <v>5987863</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>5930835</v>
+        <v>5931726</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6040136</v>
+        <v>6045508</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.8243697763300118</v>
+        <v>0.8243697763300117</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.8165185343779093</v>
+        <v>0.8166410868833842</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.8315663617291668</v>
+        <v>0.8323058641075587</v>
       </c>
     </row>
     <row r="43">
